--- a/EXCEL FORMULA'S.xlsx
+++ b/EXCEL FORMULA'S.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2020c\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7985E13C-B95F-4D8F-A3BD-CC265201B054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE8A4C3-BD7F-42DC-8230-8945DD63BBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excel formula" sheetId="1" r:id="rId1"/>
+    <sheet name="index and match" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
   <si>
     <t>Student ID</t>
   </si>
@@ -247,6 +248,30 @@
   </si>
   <si>
     <t>mode-&gt;</t>
+  </si>
+  <si>
+    <t>StudentID</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Frank</t>
   </si>
 </sst>
 </file>
@@ -289,7 +314,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -312,11 +337,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -329,11 +450,232 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -492,15 +834,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88F9250F-FFA9-4C0F-AF88-A6CB545BC885}" name="Table1" displayName="Table1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88F9250F-FFA9-4C0F-AF88-A6CB545BC885}" name="Table1" displayName="Table1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:F21" xr:uid="{88F9250F-FFA9-4C0F-AF88-A6CB545BC885}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FD173587-3F9C-46C5-B057-B8B23372ABE8}" name="Student ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{F24E8682-AC6F-49A3-8D8F-BADE8FC58353}" name="First Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{A0EFC1FF-26B9-4DB5-9AED-2681E308A0C0}" name="Last Name" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{4BB0B0C9-6884-40BF-9801-C1005B7F95AF}" name="Gender" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{824B3EBC-A8B8-41F3-989C-46A0DA6C89CA}" name="Attendance" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{AAF47373-C500-40C2-B433-36A458CFEF1F}" name="Grade Level" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{FD173587-3F9C-46C5-B057-B8B23372ABE8}" name="Student ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{F24E8682-AC6F-49A3-8D8F-BADE8FC58353}" name="First Name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{A0EFC1FF-26B9-4DB5-9AED-2681E308A0C0}" name="Last Name" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{4BB0B0C9-6884-40BF-9801-C1005B7F95AF}" name="Gender" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{824B3EBC-A8B8-41F3-989C-46A0DA6C89CA}" name="Attendance" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{AAF47373-C500-40C2-B433-36A458CFEF1F}" name="Grade Level" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D34119AF-DBEB-4BED-BB80-C55F2CC66C16}" name="Table2" displayName="Table2" ref="A1:D7" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:D7" xr:uid="{D34119AF-DBEB-4BED-BB80-C55F2CC66C16}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B7FE3A93-8E4F-4C5A-9DC7-859CB50AD092}" name="StudentID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{E57B657F-ED6D-4818-977B-527DDB13D0E7}" name="FullName" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{E2A4A149-C48E-45AE-B636-BB27797430CB}" name="Index" dataDxfId="1">
+      <calculatedColumnFormula>INDEX(B2:B10,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{604DA2E5-2E12-4544-8BAA-A19962494AAB}" name="Match" dataDxfId="0">
+      <calculatedColumnFormula>MATCH(B2,B2:B7)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -709,7 +1068,7 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1305,7 +1664,7 @@
       </c>
       <c r="D39" s="6">
         <f ca="1">NOW()</f>
-        <v>45506.408737384256</v>
+        <v>45506.428357986108</v>
       </c>
     </row>
     <row r="40" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1332,7 +1691,7 @@
       </c>
       <c r="D42">
         <f ca="1">SECOND(NOW())</f>
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1391,4 +1750,136 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86A6255-D81D-4A26-9CE8-5337F81282CD}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2:C7" si="0">INDEX(B2:B10,1)</f>
+        <v>Alice</v>
+      </c>
+      <c r="D2" s="9">
+        <f t="shared" ref="D2:D7" si="1">MATCH(B2,B2:B7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>1006</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Bob</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>1012</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Charlie</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>1018</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>David</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>1024</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Emily</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>1030</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="14" t="str">
+        <f>C4</f>
+        <v>Charlie</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>